--- a/Data/MonthlyHeaderMapping.xlsx
+++ b/Data/MonthlyHeaderMapping.xlsx
@@ -212,18 +212,9 @@
     <t>Borrower_Assistance_Status_Code</t>
   </si>
   <si>
-    <t>dtype</t>
-  </si>
-  <si>
-    <t>np.float_ </t>
-  </si>
-  <si>
     <t>str</t>
   </si>
   <si>
-    <t>np.float_</t>
-  </si>
-  <si>
     <t>str </t>
   </si>
   <si>
@@ -231,6 +222,15 @@
   </si>
   <si>
     <t>ColumnPosition</t>
+  </si>
+  <si>
+    <t>numpy.float_ </t>
+  </si>
+  <si>
+    <t>numpy.float_</t>
+  </si>
+  <si>
+    <t>dType</t>
   </si>
 </sst>
 </file>
@@ -551,7 +551,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -568,10 +568,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -582,7 +582,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -596,7 +596,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D3">
         <f>D2+1</f>
@@ -611,7 +611,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:D31" si="0">D3+1</f>
@@ -626,7 +626,7 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
@@ -641,7 +641,7 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
@@ -656,7 +656,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
@@ -671,7 +671,7 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
@@ -686,7 +686,7 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
@@ -701,7 +701,7 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
@@ -716,7 +716,7 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
@@ -731,7 +731,7 @@
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
@@ -746,7 +746,7 @@
         <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
@@ -761,7 +761,7 @@
         <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
@@ -776,7 +776,7 @@
         <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
@@ -791,7 +791,7 @@
         <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
@@ -806,7 +806,7 @@
         <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
@@ -821,7 +821,7 @@
         <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
@@ -836,7 +836,7 @@
         <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
@@ -851,7 +851,7 @@
         <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
@@ -866,7 +866,7 @@
         <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
@@ -881,7 +881,7 @@
         <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
@@ -896,7 +896,7 @@
         <v>45</v>
       </c>
       <c r="C23" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D23">
         <f t="shared" si="0"/>
@@ -911,7 +911,7 @@
         <v>47</v>
       </c>
       <c r="C24" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
@@ -926,7 +926,7 @@
         <v>49</v>
       </c>
       <c r="C25" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D25">
         <f t="shared" si="0"/>
@@ -941,7 +941,7 @@
         <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D26">
         <f t="shared" si="0"/>
@@ -956,7 +956,7 @@
         <v>53</v>
       </c>
       <c r="C27" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D27">
         <f t="shared" si="0"/>
@@ -971,7 +971,7 @@
         <v>55</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D28">
         <f t="shared" si="0"/>
@@ -986,7 +986,7 @@
         <v>57</v>
       </c>
       <c r="C29" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D29">
         <f t="shared" si="0"/>
@@ -1001,7 +1001,7 @@
         <v>59</v>
       </c>
       <c r="C30" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D30">
         <f t="shared" si="0"/>
@@ -1016,7 +1016,7 @@
         <v>61</v>
       </c>
       <c r="C31" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D31">
         <f t="shared" si="0"/>

--- a/Data/MonthlyHeaderMapping.xlsx
+++ b/Data/MonthlyHeaderMapping.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="70">
   <si>
     <t>Header</t>
   </si>
@@ -231,6 +231,9 @@
   </si>
   <si>
     <t>dType</t>
+  </si>
+  <si>
+    <t>DeletedAfterCleaning</t>
   </si>
 </sst>
 </file>
@@ -548,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -560,7 +563,7 @@
     <col min="2" max="2" width="33.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -573,8 +576,11 @@
       <c r="D1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -587,8 +593,11 @@
       <c r="D2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -602,8 +611,11 @@
         <f>D2+1</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -617,8 +629,11 @@
         <f t="shared" ref="D4:D31" si="0">D3+1</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -632,8 +647,11 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -647,8 +665,11 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -662,8 +683,11 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -677,8 +701,11 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -692,8 +719,11 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -707,8 +737,11 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -722,8 +755,11 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -737,8 +773,11 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -752,8 +791,11 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -767,8 +809,11 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -782,8 +827,11 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -797,8 +845,11 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -812,8 +863,11 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -827,8 +881,11 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -842,8 +899,11 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -857,8 +917,11 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -872,8 +935,11 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -887,8 +953,11 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -902,8 +971,11 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -917,8 +989,11 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -932,8 +1007,11 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -947,8 +1025,11 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -962,8 +1043,11 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -977,8 +1061,11 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -992,8 +1079,11 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -1007,8 +1097,11 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -1021,6 +1114,9 @@
       <c r="D31">
         <f t="shared" si="0"/>
         <v>30</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
